--- a/ZoningAtlas/raw_data/Excel_workbooks/Orange_Newbury_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Orange_Newbury_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/csmith26_uvm_edu/Documents/PERSONAL/PROF DEV/FELLOWSHIP/Zoning Atlas/Newbury/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="13_ncr:1_{0DA17969-B563-4C40-88F4-F7D00165D858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46BDAC67-93C9-43DA-8521-8E991406FE7F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684003D-1A51-BC45-B43F-4A52A2EB1623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="148">
   <si>
     <t>County</t>
   </si>
@@ -479,9 +479,6 @@
   </si>
   <si>
     <t xml:space="preserve">1-Family, 2-Family, and ADUs - conditional use approval when within 250 of water. 251-750 feet from water - underlying district regulations apply. </t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>No underground structures such as new septic</t>
@@ -549,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -559,433 +556,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="205">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="145">
     <dxf>
       <fill>
         <patternFill>
@@ -2012,10 +1588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2315,16 +1887,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
-  <dimension ref="A1:AM144"/>
+  <dimension ref="A1:AA144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z94" sqref="Z94"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -2353,21 +1925,9 @@
     <col min="25" max="25" width="14.83203125" customWidth="1"/>
     <col min="26" max="26" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.83203125" customWidth="1"/>
-    <col min="28" max="28" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.83203125" customWidth="1"/>
-    <col min="30" max="30" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.83203125" customWidth="1"/>
-    <col min="32" max="32" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.83203125" customWidth="1"/>
-    <col min="34" max="34" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.83203125" customWidth="1"/>
-    <col min="36" max="36" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.83203125" customWidth="1"/>
-    <col min="38" max="38" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2449,32 +2009,8 @@
       <c r="AA1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2530,14 +2066,8 @@
         <v>115</v>
       </c>
       <c r="AA2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AM2" s="1"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2593,14 +2123,8 @@
         <v>117</v>
       </c>
       <c r="AA3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AM3" s="1"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2656,14 +2180,8 @@
         <v>144</v>
       </c>
       <c r="AA4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AM4" s="1"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2719,14 +2237,8 @@
         <v>5</v>
       </c>
       <c r="AA5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AM5" s="1"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2766,11 +2278,11 @@
         <v>6</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="7" t="s">
+      <c r="T6" t="s">
         <v>5</v>
       </c>
       <c r="U6" s="1"/>
-      <c r="V6" s="7" t="s">
+      <c r="V6" t="s">
         <v>5</v>
       </c>
       <c r="W6" s="1"/>
@@ -2782,14 +2294,8 @@
         <v>6</v>
       </c>
       <c r="AA6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AM6" s="1"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2845,14 +2351,8 @@
         <v>6</v>
       </c>
       <c r="AA7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AM7" s="1"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2892,11 +2392,11 @@
         <v>99</v>
       </c>
       <c r="S8" s="1"/>
-      <c r="T8" s="7" t="s">
+      <c r="T8" t="s">
         <v>99</v>
       </c>
       <c r="U8" s="1"/>
-      <c r="V8" s="7" t="s">
+      <c r="V8" t="s">
         <v>98</v>
       </c>
       <c r="W8" s="1"/>
@@ -2908,14 +2408,8 @@
         <v>98</v>
       </c>
       <c r="AA8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AM8" s="1"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2971,14 +2465,8 @@
         <v>6</v>
       </c>
       <c r="AA9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AM9" s="1"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3034,14 +2522,8 @@
         <v>6</v>
       </c>
       <c r="AA10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AM10" s="1"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3081,7 +2563,7 @@
         <v>9</v>
       </c>
       <c r="S11" s="1"/>
-      <c r="T11" s="7" t="s">
+      <c r="T11" t="s">
         <v>8</v>
       </c>
       <c r="U11" s="1"/>
@@ -3097,14 +2579,8 @@
         <v>9</v>
       </c>
       <c r="AA11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AM11" s="1"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3144,7 +2620,7 @@
         <v>9</v>
       </c>
       <c r="S12" s="1"/>
-      <c r="T12" s="7" t="s">
+      <c r="T12" t="s">
         <v>8</v>
       </c>
       <c r="U12" s="1"/>
@@ -3160,14 +2636,8 @@
         <v>9</v>
       </c>
       <c r="AA12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AM12" s="1"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3223,14 +2693,8 @@
         <v>9</v>
       </c>
       <c r="AA13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AM13" s="1"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3286,14 +2750,8 @@
         <v>9</v>
       </c>
       <c r="AA14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AM14" s="1"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3349,14 +2807,8 @@
         <v>9</v>
       </c>
       <c r="AA15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AM15" s="1"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3412,14 +2864,8 @@
         <v>9</v>
       </c>
       <c r="AA16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AM16" s="1"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3475,14 +2921,8 @@
         <v>11</v>
       </c>
       <c r="AA17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AM17" s="1"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3522,11 +2962,11 @@
         <v>8</v>
       </c>
       <c r="S18" s="1"/>
-      <c r="T18" s="7" t="s">
+      <c r="T18" t="s">
         <v>8</v>
       </c>
       <c r="U18" s="1"/>
-      <c r="V18" s="7" t="s">
+      <c r="V18" t="s">
         <v>8</v>
       </c>
       <c r="W18" s="1"/>
@@ -3538,14 +2978,8 @@
         <v>8</v>
       </c>
       <c r="AA18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AM18" s="1"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -3562,20 +2996,14 @@
         <v>146</v>
       </c>
       <c r="U19" s="1"/>
-      <c r="V19" s="7" t="s">
-        <v>148</v>
+      <c r="V19" t="s">
+        <v>147</v>
       </c>
       <c r="W19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AM19" s="1"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -3605,20 +3033,8 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3676,7 +3092,6 @@
       <c r="U21" t="s">
         <v>93</v>
       </c>
-      <c r="V21" s="7"/>
       <c r="W21" t="s">
         <v>93</v>
       </c>
@@ -3692,26 +3107,8 @@
       <c r="AA21" t="s">
         <v>93</v>
       </c>
-      <c r="AC21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3769,7 +3166,6 @@
       <c r="U22" t="s">
         <v>84</v>
       </c>
-      <c r="V22" s="7"/>
       <c r="W22" t="s">
         <v>84</v>
       </c>
@@ -3785,26 +3181,8 @@
       <c r="AA22" t="s">
         <v>84</v>
       </c>
-      <c r="AC22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3862,7 +3240,6 @@
       <c r="U23" t="s">
         <v>84</v>
       </c>
-      <c r="V23" s="7"/>
       <c r="W23" t="s">
         <v>84</v>
       </c>
@@ -3878,26 +3255,8 @@
       <c r="AA23" t="s">
         <v>84</v>
       </c>
-      <c r="AC23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3955,7 +3314,6 @@
       <c r="U24" t="s">
         <v>84</v>
       </c>
-      <c r="V24" s="7"/>
       <c r="W24" t="s">
         <v>84</v>
       </c>
@@ -3971,26 +3329,8 @@
       <c r="AA24" t="s">
         <v>84</v>
       </c>
-      <c r="AC24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -4048,7 +3388,6 @@
       <c r="U25" t="s">
         <v>84</v>
       </c>
-      <c r="V25" s="7"/>
       <c r="W25" t="s">
         <v>84</v>
       </c>
@@ -4064,26 +3403,8 @@
       <c r="AA25" t="s">
         <v>84</v>
       </c>
-      <c r="AC25" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4117,7 +3438,6 @@
       <c r="U26" t="s">
         <v>69</v>
       </c>
-      <c r="V26" s="7"/>
       <c r="W26" t="s">
         <v>69</v>
       </c>
@@ -4127,26 +3447,8 @@
       <c r="AA26" t="s">
         <v>69</v>
       </c>
-      <c r="AC26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4180,7 +3482,6 @@
       <c r="U27" t="s">
         <v>69</v>
       </c>
-      <c r="V27" s="7"/>
       <c r="W27" t="s">
         <v>69</v>
       </c>
@@ -4190,26 +3491,8 @@
       <c r="AA27" t="s">
         <v>69</v>
       </c>
-      <c r="AC27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -4243,7 +3526,6 @@
       <c r="U28" t="s">
         <v>85</v>
       </c>
-      <c r="V28" s="7"/>
       <c r="W28" t="s">
         <v>85</v>
       </c>
@@ -4253,26 +3535,8 @@
       <c r="AA28" t="s">
         <v>85</v>
       </c>
-      <c r="AC28" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -4306,7 +3570,6 @@
       <c r="U29" t="s">
         <v>86</v>
       </c>
-      <c r="V29" s="7"/>
       <c r="W29" t="s">
         <v>86</v>
       </c>
@@ -4316,26 +3579,8 @@
       <c r="AA29" t="s">
         <v>86</v>
       </c>
-      <c r="AC29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4393,7 +3638,6 @@
       <c r="U30" t="s">
         <v>84</v>
       </c>
-      <c r="V30" s="7"/>
       <c r="W30" t="s">
         <v>84</v>
       </c>
@@ -4409,26 +3653,8 @@
       <c r="AA30" t="s">
         <v>84</v>
       </c>
-      <c r="AC30" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -4462,7 +3688,6 @@
       <c r="U31" t="s">
         <v>87</v>
       </c>
-      <c r="V31" s="7"/>
       <c r="W31" t="s">
         <v>87</v>
       </c>
@@ -4472,26 +3697,8 @@
       <c r="AA31" t="s">
         <v>87</v>
       </c>
-      <c r="AC31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -4525,7 +3732,6 @@
       <c r="U32" t="s">
         <v>88</v>
       </c>
-      <c r="V32" s="7"/>
       <c r="W32" t="s">
         <v>88</v>
       </c>
@@ -4535,26 +3741,8 @@
       <c r="AA32" t="s">
         <v>88</v>
       </c>
-      <c r="AC32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -4584,20 +3772,8 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4635,7 +3811,6 @@
         <v>6</v>
       </c>
       <c r="U34" s="1"/>
-      <c r="V34" s="7"/>
       <c r="W34" s="1"/>
       <c r="X34" t="s">
         <v>6</v>
@@ -4645,14 +3820,8 @@
         <v>6</v>
       </c>
       <c r="AA34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AM34" s="1"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -4690,7 +3859,6 @@
         <v>6</v>
       </c>
       <c r="U35" s="1"/>
-      <c r="V35" s="7"/>
       <c r="W35" s="1"/>
       <c r="X35" t="s">
         <v>6</v>
@@ -4700,14 +3868,8 @@
         <v>6</v>
       </c>
       <c r="AA35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AM35" s="1"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -4765,7 +3927,6 @@
       <c r="U36" t="s">
         <v>93</v>
       </c>
-      <c r="V36" s="7"/>
       <c r="W36" t="s">
         <v>93</v>
       </c>
@@ -4781,26 +3942,8 @@
       <c r="AA36" t="s">
         <v>93</v>
       </c>
-      <c r="AC36" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -4834,7 +3977,6 @@
       <c r="U37" t="s">
         <v>90</v>
       </c>
-      <c r="V37" s="7"/>
       <c r="W37" t="s">
         <v>90</v>
       </c>
@@ -4844,26 +3986,8 @@
       <c r="AA37" t="s">
         <v>90</v>
       </c>
-      <c r="AC37" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -4921,7 +4045,6 @@
       <c r="U38" t="s">
         <v>84</v>
       </c>
-      <c r="V38" s="7"/>
       <c r="W38" t="s">
         <v>84</v>
       </c>
@@ -4937,26 +4060,8 @@
       <c r="AA38" t="s">
         <v>84</v>
       </c>
-      <c r="AC38" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -5014,7 +4119,6 @@
       <c r="U39" t="s">
         <v>84</v>
       </c>
-      <c r="V39" s="7"/>
       <c r="W39" t="s">
         <v>84</v>
       </c>
@@ -5030,26 +4134,8 @@
       <c r="AA39" t="s">
         <v>84</v>
       </c>
-      <c r="AC39" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -5107,7 +4193,6 @@
       <c r="U40" t="s">
         <v>84</v>
       </c>
-      <c r="V40" s="7"/>
       <c r="W40" t="s">
         <v>84</v>
       </c>
@@ -5123,26 +4208,8 @@
       <c r="AA40" t="s">
         <v>84</v>
       </c>
-      <c r="AC40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -5200,7 +4267,6 @@
       <c r="U41" t="s">
         <v>84</v>
       </c>
-      <c r="V41" s="7"/>
       <c r="W41" t="s">
         <v>84</v>
       </c>
@@ -5216,26 +4282,8 @@
       <c r="AA41" t="s">
         <v>84</v>
       </c>
-      <c r="AC41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -5269,7 +4317,6 @@
       <c r="U42" t="s">
         <v>69</v>
       </c>
-      <c r="V42" s="7"/>
       <c r="W42" t="s">
         <v>69</v>
       </c>
@@ -5279,26 +4326,8 @@
       <c r="AA42" t="s">
         <v>69</v>
       </c>
-      <c r="AC42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -5332,7 +4361,6 @@
       <c r="U43" t="s">
         <v>69</v>
       </c>
-      <c r="V43" s="7"/>
       <c r="W43" t="s">
         <v>69</v>
       </c>
@@ -5342,26 +4370,8 @@
       <c r="AA43" t="s">
         <v>69</v>
       </c>
-      <c r="AC43" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK43" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -5395,7 +4405,6 @@
       <c r="U44" t="s">
         <v>85</v>
       </c>
-      <c r="V44" s="7"/>
       <c r="W44" t="s">
         <v>85</v>
       </c>
@@ -5405,26 +4414,8 @@
       <c r="AA44" t="s">
         <v>85</v>
       </c>
-      <c r="AC44" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -5458,7 +4449,6 @@
       <c r="U45" t="s">
         <v>85</v>
       </c>
-      <c r="V45" s="7"/>
       <c r="W45" t="s">
         <v>85</v>
       </c>
@@ -5468,26 +4458,8 @@
       <c r="AA45" t="s">
         <v>85</v>
       </c>
-      <c r="AC45" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -5521,7 +4493,6 @@
       <c r="U46" t="s">
         <v>86</v>
       </c>
-      <c r="V46" s="7"/>
       <c r="W46" t="s">
         <v>86</v>
       </c>
@@ -5531,26 +4502,8 @@
       <c r="AA46" t="s">
         <v>86</v>
       </c>
-      <c r="AC46" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -5608,7 +4561,6 @@
       <c r="U47" t="s">
         <v>84</v>
       </c>
-      <c r="V47" s="7"/>
       <c r="W47" t="s">
         <v>84</v>
       </c>
@@ -5624,26 +4576,8 @@
       <c r="AA47" t="s">
         <v>84</v>
       </c>
-      <c r="AC47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -5677,7 +4611,6 @@
       <c r="U48" t="s">
         <v>87</v>
       </c>
-      <c r="V48" s="7"/>
       <c r="W48" t="s">
         <v>87</v>
       </c>
@@ -5687,26 +4620,8 @@
       <c r="AA48" t="s">
         <v>87</v>
       </c>
-      <c r="AC48" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -5740,7 +4655,6 @@
       <c r="U49" t="s">
         <v>88</v>
       </c>
-      <c r="V49" s="7"/>
       <c r="W49" t="s">
         <v>88</v>
       </c>
@@ -5750,26 +4664,8 @@
       <c r="AA49" t="s">
         <v>88</v>
       </c>
-      <c r="AC49" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
@@ -5799,20 +4695,8 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -5853,14 +4737,8 @@
         <v>6</v>
       </c>
       <c r="AA51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AM51" s="1"/>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -5901,14 +4779,8 @@
         <v>6</v>
       </c>
       <c r="AA52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AM52" s="1"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -5975,26 +4847,8 @@
       <c r="AA53" t="s">
         <v>93</v>
       </c>
-      <c r="AC53" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -6037,26 +4891,8 @@
       <c r="AA54" t="s">
         <v>90</v>
       </c>
-      <c r="AC54" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -6123,26 +4959,8 @@
       <c r="AA55" t="s">
         <v>84</v>
       </c>
-      <c r="AC55" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -6209,26 +5027,8 @@
       <c r="AA56" t="s">
         <v>84</v>
       </c>
-      <c r="AC56" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -6295,26 +5095,8 @@
       <c r="AA57" t="s">
         <v>84</v>
       </c>
-      <c r="AC57" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -6381,26 +5163,8 @@
       <c r="AA58" t="s">
         <v>84</v>
       </c>
-      <c r="AC58" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI58" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK58" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -6443,26 +5207,8 @@
       <c r="AA59" t="s">
         <v>69</v>
       </c>
-      <c r="AC59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -6505,26 +5251,8 @@
       <c r="AA60" t="s">
         <v>69</v>
       </c>
-      <c r="AC60" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -6567,26 +5295,8 @@
       <c r="AA61" t="s">
         <v>85</v>
       </c>
-      <c r="AC61" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -6629,26 +5339,8 @@
       <c r="AA62" t="s">
         <v>85</v>
       </c>
-      <c r="AC62" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -6665,14 +5357,8 @@
       <c r="W63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="AA63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AG63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AM63" s="1"/>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -6689,14 +5375,8 @@
       <c r="W64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="AA64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AE64" s="1"/>
-      <c r="AG64" s="1"/>
-      <c r="AI64" s="1"/>
-      <c r="AK64" s="1"/>
-      <c r="AM64" s="1"/>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -6739,26 +5419,8 @@
       <c r="AA65" t="s">
         <v>86</v>
       </c>
-      <c r="AC65" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -6825,26 +5487,8 @@
       <c r="AA66" t="s">
         <v>84</v>
       </c>
-      <c r="AC66" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -6887,26 +5531,8 @@
       <c r="AA67" t="s">
         <v>87</v>
       </c>
-      <c r="AC67" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -6949,26 +5575,8 @@
       <c r="AA68" t="s">
         <v>88</v>
       </c>
-      <c r="AC68" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -7011,26 +5619,8 @@
       <c r="AA69" t="s">
         <v>92</v>
       </c>
-      <c r="AC69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>39</v>
       </c>
@@ -7086,32 +5676,8 @@
       <c r="AA70" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ70" s="1"/>
-      <c r="AK70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL70" s="1"/>
-      <c r="AM70" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -7123,37 +5689,31 @@
       <c r="G71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="S71" s="1"/>
       <c r="U71" s="1"/>
       <c r="W71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="AA71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AM71" s="1"/>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -7165,37 +5725,31 @@
       <c r="G72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="S72" s="1"/>
       <c r="U72" s="1"/>
       <c r="W72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="AA72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AG72" s="1"/>
-      <c r="AI72" s="1"/>
-      <c r="AK72" s="1"/>
-      <c r="AM72" s="1"/>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -7262,26 +5816,8 @@
       <c r="AA73" t="s">
         <v>93</v>
       </c>
-      <c r="AC73" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -7324,26 +5860,8 @@
       <c r="AA74" t="s">
         <v>90</v>
       </c>
-      <c r="AC74" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -7410,26 +5928,8 @@
       <c r="AA75" t="s">
         <v>84</v>
       </c>
-      <c r="AC75" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG75" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI75" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK75" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -7496,26 +5996,8 @@
       <c r="AA76" t="s">
         <v>84</v>
       </c>
-      <c r="AC76" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -7582,26 +6064,8 @@
       <c r="AA77" t="s">
         <v>84</v>
       </c>
-      <c r="AC77" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK77" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -7668,26 +6132,8 @@
       <c r="AA78" t="s">
         <v>84</v>
       </c>
-      <c r="AC78" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI78" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK78" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -7730,26 +6176,8 @@
       <c r="AA79" t="s">
         <v>69</v>
       </c>
-      <c r="AC79" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI79" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK79" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM79" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -7792,26 +6220,8 @@
       <c r="AA80" t="s">
         <v>69</v>
       </c>
-      <c r="AC80" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI80" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK80" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -7854,26 +6264,8 @@
       <c r="AA81" t="s">
         <v>85</v>
       </c>
-      <c r="AC81" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG81" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI81" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK81" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM81" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -7916,26 +6308,8 @@
       <c r="AA82" t="s">
         <v>85</v>
       </c>
-      <c r="AC82" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG82" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI82" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK82" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -7952,14 +6326,8 @@
       <c r="W83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="AA83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AG83" s="1"/>
-      <c r="AI83" s="1"/>
-      <c r="AK83" s="1"/>
-      <c r="AM83" s="1"/>
-    </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -7976,14 +6344,8 @@
       <c r="W84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="AA84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AE84" s="1"/>
-      <c r="AG84" s="1"/>
-      <c r="AI84" s="1"/>
-      <c r="AK84" s="1"/>
-      <c r="AM84" s="1"/>
-    </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -8026,26 +6388,8 @@
       <c r="AA85" t="s">
         <v>86</v>
       </c>
-      <c r="AC85" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG85" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI85" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK85" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -8112,26 +6456,8 @@
       <c r="AA86" t="s">
         <v>84</v>
       </c>
-      <c r="AC86" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG86" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI86" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK86" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -8174,26 +6500,8 @@
       <c r="AA87" t="s">
         <v>87</v>
       </c>
-      <c r="AC87" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG87" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI87" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK87" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -8236,26 +6544,8 @@
       <c r="AA88" t="s">
         <v>88</v>
       </c>
-      <c r="AC88" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG88" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI88" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK88" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -8298,26 +6588,8 @@
       <c r="AA89" t="s">
         <v>92</v>
       </c>
-      <c r="AC89" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG89" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI89" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK89" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -8360,26 +6632,8 @@
       <c r="AA90" t="s">
         <v>94</v>
       </c>
-      <c r="AC90" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG90" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI90" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK90" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM90" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -8435,32 +6689,8 @@
       <c r="AA91" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ91" s="1"/>
-      <c r="AK91" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL91" s="1"/>
-      <c r="AM91" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -8472,43 +6702,37 @@
       <c r="G92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="Q92" s="1"/>
       <c r="R92" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="S92" s="1"/>
       <c r="U92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="Y92" s="1"/>
       <c r="Z92" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="AA92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AE92" s="1"/>
-      <c r="AG92" s="1"/>
-      <c r="AI92" s="1"/>
-      <c r="AK92" s="1"/>
-      <c r="AM92" s="1"/>
-    </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -8520,43 +6744,37 @@
       <c r="G93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="Q93" s="1"/>
       <c r="R93" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="S93" s="1"/>
       <c r="U93" s="1"/>
       <c r="W93" s="1"/>
       <c r="X93" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="Y93" s="1"/>
       <c r="Z93" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="AA93" s="1"/>
-      <c r="AC93" s="1"/>
-      <c r="AE93" s="1"/>
-      <c r="AG93" s="1"/>
-      <c r="AI93" s="1"/>
-      <c r="AK93" s="1"/>
-      <c r="AM93" s="1"/>
-    </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -8623,26 +6841,8 @@
       <c r="AA94" t="s">
         <v>93</v>
       </c>
-      <c r="AC94" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG94" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI94" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK94" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -8685,26 +6885,8 @@
       <c r="AA95" t="s">
         <v>90</v>
       </c>
-      <c r="AC95" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG95" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI95" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK95" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM95" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -8771,26 +6953,8 @@
       <c r="AA96" t="s">
         <v>84</v>
       </c>
-      <c r="AC96" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG96" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI96" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK96" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM96" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -8857,26 +7021,8 @@
       <c r="AA97" t="s">
         <v>84</v>
       </c>
-      <c r="AC97" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE97" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG97" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI97" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK97" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -8943,26 +7089,8 @@
       <c r="AA98" t="s">
         <v>84</v>
       </c>
-      <c r="AC98" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE98" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG98" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI98" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK98" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM98" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -9029,26 +7157,8 @@
       <c r="AA99" t="s">
         <v>84</v>
       </c>
-      <c r="AC99" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE99" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG99" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI99" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK99" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM99" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -9091,26 +7201,8 @@
       <c r="AA100" t="s">
         <v>69</v>
       </c>
-      <c r="AC100" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG100" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI100" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK100" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM100" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -9153,26 +7245,8 @@
       <c r="AA101" t="s">
         <v>69</v>
       </c>
-      <c r="AC101" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG101" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI101" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK101" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM101" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -9215,26 +7289,8 @@
       <c r="AA102" t="s">
         <v>85</v>
       </c>
-      <c r="AC102" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG102" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI102" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK102" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM102" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -9277,26 +7333,8 @@
       <c r="AA103" t="s">
         <v>85</v>
       </c>
-      <c r="AC103" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG103" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI103" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK103" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM103" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>46</v>
       </c>
@@ -9313,14 +7351,8 @@
       <c r="W104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="AA104" s="1"/>
-      <c r="AC104" s="1"/>
-      <c r="AE104" s="1"/>
-      <c r="AG104" s="1"/>
-      <c r="AI104" s="1"/>
-      <c r="AK104" s="1"/>
-      <c r="AM104" s="1"/>
-    </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -9337,14 +7369,8 @@
       <c r="W105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="AA105" s="1"/>
-      <c r="AC105" s="1"/>
-      <c r="AE105" s="1"/>
-      <c r="AG105" s="1"/>
-      <c r="AI105" s="1"/>
-      <c r="AK105" s="1"/>
-      <c r="AM105" s="1"/>
-    </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -9387,26 +7413,8 @@
       <c r="AA106" t="s">
         <v>86</v>
       </c>
-      <c r="AC106" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE106" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG106" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI106" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK106" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM106" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -9473,26 +7481,8 @@
       <c r="AA107" t="s">
         <v>84</v>
       </c>
-      <c r="AC107" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE107" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG107" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI107" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK107" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM107" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -9535,26 +7525,8 @@
       <c r="AA108" t="s">
         <v>87</v>
       </c>
-      <c r="AC108" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE108" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG108" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI108" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK108" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM108" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -9597,26 +7569,8 @@
       <c r="AA109" t="s">
         <v>88</v>
       </c>
-      <c r="AC109" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE109" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG109" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI109" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK109" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM109" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>48</v>
       </c>
@@ -9659,26 +7613,8 @@
       <c r="AA110" t="s">
         <v>92</v>
       </c>
-      <c r="AC110" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE110" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG110" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI110" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK110" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM110" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -9721,26 +7657,8 @@
       <c r="AA111" t="s">
         <v>94</v>
       </c>
-      <c r="AC111" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE111" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG111" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI111" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK111" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM111" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>50</v>
       </c>
@@ -9796,37 +7714,13 @@
       <c r="AA112" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AB112" s="1"/>
-      <c r="AC112" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD112" s="1"/>
-      <c r="AE112" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF112" s="1"/>
-      <c r="AG112" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH112" s="1"/>
-      <c r="AI112" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ112" s="1"/>
-      <c r="AK112" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL112" s="1"/>
-      <c r="AM112" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -9843,14 +7737,8 @@
       <c r="W114" s="1"/>
       <c r="Y114" s="1"/>
       <c r="AA114" s="1"/>
-      <c r="AC114" s="1"/>
-      <c r="AE114" s="1"/>
-      <c r="AG114" s="1"/>
-      <c r="AI114" s="1"/>
-      <c r="AK114" s="1"/>
-      <c r="AM114" s="1"/>
-    </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -9893,26 +7781,8 @@
       <c r="AA115" t="s">
         <v>93</v>
       </c>
-      <c r="AC115" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE115" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG115" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI115" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK115" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM115" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -9955,26 +7825,8 @@
       <c r="AA116" t="s">
         <v>90</v>
       </c>
-      <c r="AC116" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE116" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG116" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI116" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK116" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM116" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -10017,26 +7869,8 @@
       <c r="AA117" t="s">
         <v>85</v>
       </c>
-      <c r="AC117" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE117" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG117" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI117" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK117" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM117" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>45</v>
       </c>
@@ -10079,26 +7913,8 @@
       <c r="AA118" t="s">
         <v>85</v>
       </c>
-      <c r="AC118" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE118" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG118" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI118" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK118" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM118" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -10141,26 +7957,8 @@
       <c r="AA119" t="s">
         <v>88</v>
       </c>
-      <c r="AC119" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE119" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG119" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI119" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK119" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM119" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -10203,26 +8001,8 @@
       <c r="AA120" t="s">
         <v>92</v>
       </c>
-      <c r="AC120" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE120" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG120" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI120" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK120" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM120" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -10265,26 +8045,8 @@
       <c r="AA121" t="s">
         <v>94</v>
       </c>
-      <c r="AC121" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE121" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG121" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI121" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK121" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM121" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
@@ -10340,32 +8102,8 @@
       <c r="AA122" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AB122" s="1"/>
-      <c r="AC122" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD122" s="1"/>
-      <c r="AE122" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF122" s="1"/>
-      <c r="AG122" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH122" s="1"/>
-      <c r="AI122" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ122" s="1"/>
-      <c r="AK122" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL122" s="1"/>
-      <c r="AM122" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>53</v>
       </c>
@@ -10382,14 +8120,8 @@
       <c r="W123" s="1"/>
       <c r="Y123" s="1"/>
       <c r="AA123" s="1"/>
-      <c r="AC123" s="1"/>
-      <c r="AE123" s="1"/>
-      <c r="AG123" s="1"/>
-      <c r="AI123" s="1"/>
-      <c r="AK123" s="1"/>
-      <c r="AM123" s="1"/>
-    </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>54</v>
       </c>
@@ -10406,14 +8138,8 @@
       <c r="W124" s="1"/>
       <c r="Y124" s="1"/>
       <c r="AA124" s="1"/>
-      <c r="AC124" s="1"/>
-      <c r="AE124" s="1"/>
-      <c r="AG124" s="1"/>
-      <c r="AI124" s="1"/>
-      <c r="AK124" s="1"/>
-      <c r="AM124" s="1"/>
-    </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>55</v>
       </c>
@@ -10430,14 +8156,8 @@
       <c r="W125" s="1"/>
       <c r="Y125" s="1"/>
       <c r="AA125" s="1"/>
-      <c r="AC125" s="1"/>
-      <c r="AE125" s="1"/>
-      <c r="AG125" s="1"/>
-      <c r="AI125" s="1"/>
-      <c r="AK125" s="1"/>
-      <c r="AM125" s="1"/>
-    </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -10454,14 +8174,8 @@
       <c r="W126" s="1"/>
       <c r="Y126" s="1"/>
       <c r="AA126" s="1"/>
-      <c r="AC126" s="1"/>
-      <c r="AE126" s="1"/>
-      <c r="AG126" s="1"/>
-      <c r="AI126" s="1"/>
-      <c r="AK126" s="1"/>
-      <c r="AM126" s="1"/>
-    </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -10504,26 +8218,8 @@
       <c r="AA127" t="s">
         <v>93</v>
       </c>
-      <c r="AC127" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE127" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG127" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI127" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK127" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM127" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -10566,26 +8262,8 @@
       <c r="AA128" t="s">
         <v>85</v>
       </c>
-      <c r="AC128" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE128" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG128" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI128" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK128" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM128" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -10602,14 +8280,8 @@
       <c r="W129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="AA129" s="1"/>
-      <c r="AC129" s="1"/>
-      <c r="AE129" s="1"/>
-      <c r="AG129" s="1"/>
-      <c r="AI129" s="1"/>
-      <c r="AK129" s="1"/>
-      <c r="AM129" s="1"/>
-    </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>57</v>
       </c>
@@ -10685,26 +8357,8 @@
       <c r="AA130" t="s">
         <v>69</v>
       </c>
-      <c r="AC130" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE130" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG130" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI130" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK130" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM130" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -10780,26 +8434,8 @@
       <c r="AA131" t="s">
         <v>88</v>
       </c>
-      <c r="AC131" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE131" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG131" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI131" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK131" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM131" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>48</v>
       </c>
@@ -10842,26 +8478,8 @@
       <c r="AA132" t="s">
         <v>92</v>
       </c>
-      <c r="AC132" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE132" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG132" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI132" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK132" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM132" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>59</v>
       </c>
@@ -10917,32 +8535,8 @@
       <c r="AA133" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AB133" s="1"/>
-      <c r="AC133" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD133" s="1"/>
-      <c r="AE133" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF133" s="1"/>
-      <c r="AG133" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH133" s="1"/>
-      <c r="AI133" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ133" s="1"/>
-      <c r="AK133" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL133" s="1"/>
-      <c r="AM133" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -10992,14 +8586,8 @@
         <v>6</v>
       </c>
       <c r="AA134" s="1"/>
-      <c r="AC134" s="1"/>
-      <c r="AE134" s="1"/>
-      <c r="AG134" s="1"/>
-      <c r="AI134" s="1"/>
-      <c r="AK134" s="1"/>
-      <c r="AM134" s="1"/>
-    </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -11042,26 +8630,8 @@
       <c r="AA135" t="s">
         <v>93</v>
       </c>
-      <c r="AC135" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE135" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG135" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI135" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK135" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM135" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>91</v>
       </c>
@@ -11104,26 +8674,8 @@
       <c r="AA136" t="s">
         <v>90</v>
       </c>
-      <c r="AC136" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE136" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG136" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI136" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK136" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM136" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -11140,14 +8692,8 @@
       <c r="W137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="AA137" s="1"/>
-      <c r="AC137" s="1"/>
-      <c r="AE137" s="1"/>
-      <c r="AG137" s="1"/>
-      <c r="AI137" s="1"/>
-      <c r="AK137" s="1"/>
-      <c r="AM137" s="1"/>
-    </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>62</v>
       </c>
@@ -11203,32 +8749,8 @@
       <c r="AA138" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AB138" s="1"/>
-      <c r="AC138" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD138" s="1"/>
-      <c r="AE138" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF138" s="1"/>
-      <c r="AG138" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH138" s="1"/>
-      <c r="AI138" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ138" s="1"/>
-      <c r="AK138" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL138" s="1"/>
-      <c r="AM138" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>63</v>
       </c>
@@ -11245,14 +8767,8 @@
       <c r="W139" s="1"/>
       <c r="Y139" s="1"/>
       <c r="AA139" s="1"/>
-      <c r="AC139" s="1"/>
-      <c r="AE139" s="1"/>
-      <c r="AG139" s="1"/>
-      <c r="AI139" s="1"/>
-      <c r="AK139" s="1"/>
-      <c r="AM139" s="1"/>
-    </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>64</v>
       </c>
@@ -11269,14 +8785,8 @@
       <c r="W140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="AA140" s="1"/>
-      <c r="AC140" s="1"/>
-      <c r="AE140" s="1"/>
-      <c r="AG140" s="1"/>
-      <c r="AI140" s="1"/>
-      <c r="AK140" s="1"/>
-      <c r="AM140" s="1"/>
-    </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -11293,14 +8803,8 @@
       <c r="W141" s="1"/>
       <c r="Y141" s="1"/>
       <c r="AA141" s="1"/>
-      <c r="AC141" s="1"/>
-      <c r="AE141" s="1"/>
-      <c r="AG141" s="1"/>
-      <c r="AI141" s="1"/>
-      <c r="AK141" s="1"/>
-      <c r="AM141" s="1"/>
-    </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>66</v>
       </c>
@@ -11317,14 +8821,8 @@
       <c r="W142" s="1"/>
       <c r="Y142" s="1"/>
       <c r="AA142" s="1"/>
-      <c r="AC142" s="1"/>
-      <c r="AE142" s="1"/>
-      <c r="AG142" s="1"/>
-      <c r="AI142" s="1"/>
-      <c r="AK142" s="1"/>
-      <c r="AM142" s="1"/>
-    </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>67</v>
       </c>
@@ -11380,32 +8878,8 @@
       <c r="AA143" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AB143" s="1"/>
-      <c r="AC143" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD143" s="1"/>
-      <c r="AE143" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF143" s="1"/>
-      <c r="AG143" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH143" s="1"/>
-      <c r="AI143" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ143" s="1"/>
-      <c r="AK143" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL143" s="1"/>
-      <c r="AM143" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -11448,1049 +8922,731 @@
       <c r="AA144" t="s">
         <v>90</v>
       </c>
-      <c r="AC144" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE144" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG144" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI144" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK144" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM144" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B34:B35 X34:X37 D34:D49 F34:F49 H34:H49 J34:J49 L34:L49 N34:N49 P34:P49 R34:R49 T34:T49 V34:V49 Z34:Z49 B36:C49 E36:E49 G36:G49 I36:I49 K36:K49 M36:M49 O36:O49 Q36:Q49 S36:S49 U36:U49 W36:W49 Y36:Y49 X42:X49">
-    <cfRule type="expression" dxfId="204" priority="372">
+  <conditionalFormatting sqref="B34:B35 X34:X37 D34:D49 F34:F49 H34:H49 J34:J49 L34:L49 N34:N49 P34:P49 R34:R49 T34:T49 V34:V49 Z34:Z49 B36:C49 E36:E49 G36:G49 I36:I49 K36:K49 M36:M49 O36:O49 Q36:Q49 S36:S49 U36:U49 W36:W49 Y36:Y49 X42:X49 AA36:AA49">
+    <cfRule type="expression" dxfId="144" priority="372">
       <formula>OR(B$12="", B$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B52 J51:J52 N51:N52 X51:X52 Z51:Z52 R51:R54 D51:D69 F51:F69 H51:H69 L51:L69 P51:P69 T51:T69 V51:V69 B53:C62 E53:E62 G53:G62 I53:I62 K53:K62 M53:M62 O53:O62 Q53:Q62 S53:S62 U53:U62 W53:W62 Y53:Y62 R59:R69 X59:X69 Z59:Z69 B63:B64 B65:C69 E65:E69 G65:G69 I65:K69 M65:O69 Q65:Q69 S65:S69 U65:U69 W65:W69 Y65:Y69">
-    <cfRule type="expression" dxfId="203" priority="371" stopIfTrue="1">
+  <conditionalFormatting sqref="B51:B52 J51:J52 N51:N52 X51:X52 Z51:Z52 R51:R54 D51:D69 F51:F69 H51:H69 L51:L69 P51:P69 T51:T69 V51:V69 B53:C62 E53:E62 G53:G62 I53:I62 K53:K62 M53:M62 O53:O62 Q53:Q62 S53:S62 U53:U62 W53:W62 Y53:Y62 R59:R69 X59:X69 Z59:Z69 B63:B64 B65:C69 E65:E69 G65:G69 I65:K69 M65:O69 Q65:Q69 S65:S69 U65:U69 W65:W69 Y65:Y69 AA53:AA62 AA65:AA69">
+    <cfRule type="expression" dxfId="143" priority="371" stopIfTrue="1">
       <formula>OR(B$13="", B$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:B121 D114:D121 F114:F121 H114:H121 J114:J121 L114:L121 N114:N121 P114:P121 R114:R121 T114:T121 V114:V121 X114:X121 Z114:Z121">
-    <cfRule type="expression" dxfId="202" priority="368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="368" stopIfTrue="1">
       <formula>OR(B$17="", B$17="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123:B132 D123:D132 F123:F132 H123:H132 J123:J132 L123:L132 N123:N132 P123:P132 R123:R132 T123:T132 V123:V132 X123:X132 Z123:Z132">
-    <cfRule type="expression" dxfId="201" priority="367">
+    <cfRule type="expression" dxfId="141" priority="367">
       <formula>OR(B$16="", B$16="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B137 D134:D137 F134:F137 H134:H137 J134:J137 L134:L137 N134:N137 P134:P137 R134:R137 T134:T137 V134:V137 X134:X137 Z134:Z137">
-    <cfRule type="expression" dxfId="200" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="366" stopIfTrue="1">
       <formula>OR(B$18="Prohibited", B$18="")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:AM32">
-    <cfRule type="expression" dxfId="199" priority="40" stopIfTrue="1">
+  <conditionalFormatting sqref="B21:AA32">
+    <cfRule type="expression" dxfId="139" priority="40" stopIfTrue="1">
       <formula>OR(B$11="", B$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:C82 C85:C89">
-    <cfRule type="expression" dxfId="198" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="365" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:C103 C106:C110">
-    <cfRule type="expression" dxfId="197" priority="363" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="363" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="expression" dxfId="196" priority="364">
+  <conditionalFormatting sqref="C111 AA90">
+    <cfRule type="expression" dxfId="136" priority="364">
       <formula>OR(C$14="", C$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:C120">
-    <cfRule type="expression" dxfId="195" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="356" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="expression" dxfId="194" priority="357">
+    <cfRule type="expression" dxfId="134" priority="357">
       <formula>OR(C$14="", C$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C128">
-    <cfRule type="expression" dxfId="193" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="354" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130:C132">
-    <cfRule type="expression" dxfId="192" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="351" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135:C136">
-    <cfRule type="expression" dxfId="191" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="349" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:E82 E85:E89">
-    <cfRule type="expression" dxfId="190" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="195" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94:E103 E106:E110">
-    <cfRule type="expression" dxfId="189" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="193" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="188" priority="194">
+    <cfRule type="expression" dxfId="128" priority="194">
       <formula>OR(E$14="", E$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115:E120">
-    <cfRule type="expression" dxfId="187" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="191" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="expression" dxfId="186" priority="192">
+    <cfRule type="expression" dxfId="126" priority="192">
       <formula>OR(E$14="", E$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127:E128">
-    <cfRule type="expression" dxfId="185" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="190" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130:E132">
-    <cfRule type="expression" dxfId="184" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="189" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E136">
-    <cfRule type="expression" dxfId="183" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="188" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F86">
-    <cfRule type="expression" dxfId="182" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="33" stopIfTrue="1">
       <formula>OR(F$13="", F$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:F107">
-    <cfRule type="expression" dxfId="181" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="32" stopIfTrue="1">
       <formula>OR(F$13="", F$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G82 G85:G89">
-    <cfRule type="expression" dxfId="180" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="187" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94:G103 G106:G110">
-    <cfRule type="expression" dxfId="179" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="185" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="expression" dxfId="178" priority="186">
+    <cfRule type="expression" dxfId="118" priority="186">
       <formula>OR(G$14="", G$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115:G120">
-    <cfRule type="expression" dxfId="177" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="183" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G121">
-    <cfRule type="expression" dxfId="176" priority="184">
+    <cfRule type="expression" dxfId="116" priority="184">
       <formula>OR(G$14="", G$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G127:G128">
-    <cfRule type="expression" dxfId="175" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="182" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G130:G132">
-    <cfRule type="expression" dxfId="174" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="181" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G135:G136">
-    <cfRule type="expression" dxfId="173" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="180" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:I82 I85:I89">
-    <cfRule type="expression" dxfId="172" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="179" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94:I103 I106:I110">
-    <cfRule type="expression" dxfId="171" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="177" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="expression" dxfId="170" priority="178">
+    <cfRule type="expression" dxfId="110" priority="178">
       <formula>OR(I$14="", I$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:I120">
-    <cfRule type="expression" dxfId="169" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="175" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="expression" dxfId="168" priority="176">
+    <cfRule type="expression" dxfId="108" priority="176">
       <formula>OR(I$14="", I$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127:I128">
-    <cfRule type="expression" dxfId="167" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="174" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:I132">
-    <cfRule type="expression" dxfId="166" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="173" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135:I136">
-    <cfRule type="expression" dxfId="165" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="172" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:J64">
-    <cfRule type="expression" dxfId="164" priority="31">
+    <cfRule type="expression" dxfId="104" priority="31">
       <formula>OR(J$12="", J$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:J72 N71:N72 P71:P72 R71:R72 X71:X72 Z71:Z72 B71:B89 D71:D90 H71:H90 L71:L90 T71:T90 V71:V90 F87:F90 J87:J90 N87:N90 P87:P90 R87:R90 X87:X90 Z87:Z90 B90:C90 E90 G90 I90 K90 M90 O90 Q90 S90 U90 W90 Y90">
-    <cfRule type="expression" dxfId="163" priority="370">
+    <cfRule type="expression" dxfId="103" priority="370">
       <formula>OR(B$14="", B$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73:J84">
-    <cfRule type="expression" dxfId="162" priority="29">
+    <cfRule type="expression" dxfId="102" priority="29">
       <formula>OR(J$12="", J$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85:J86">
-    <cfRule type="expression" dxfId="161" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="30" stopIfTrue="1">
       <formula>OR(J$13="", J$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J92:J93 N92:N93 P92:P93 R92:R93 X92:X93 Z92:Z93 B92:B111 D92:D111 H92:H111 L92:L111 T92:T111 V92:V111 F108:F111 J108:J111 N108:N111 P108:P111 R108:R111 X108:X111 Z108:Z111">
-    <cfRule type="expression" dxfId="160" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="369" stopIfTrue="1">
       <formula>OR(B$15="", B$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J105">
-    <cfRule type="expression" dxfId="159" priority="27">
+    <cfRule type="expression" dxfId="99" priority="27">
       <formula>OR(J$12="", J$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J106:J107">
-    <cfRule type="expression" dxfId="158" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="28" stopIfTrue="1">
       <formula>OR(J$13="", J$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:K82 K85:K89">
-    <cfRule type="expression" dxfId="157" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="171" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94:K103 K106:K110">
-    <cfRule type="expression" dxfId="156" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="169" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K111">
-    <cfRule type="expression" dxfId="155" priority="170">
+    <cfRule type="expression" dxfId="95" priority="170">
       <formula>OR(K$14="", K$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K115:K120">
-    <cfRule type="expression" dxfId="154" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="167" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121">
-    <cfRule type="expression" dxfId="153" priority="168">
+    <cfRule type="expression" dxfId="93" priority="168">
       <formula>OR(K$14="", K$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127:K128">
-    <cfRule type="expression" dxfId="152" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="166" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K130:K132">
-    <cfRule type="expression" dxfId="151" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="165" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K135:K136">
-    <cfRule type="expression" dxfId="150" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="164" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:M82 M85:M89">
-    <cfRule type="expression" dxfId="149" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="163" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M103 M106:M110">
-    <cfRule type="expression" dxfId="148" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="161" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111">
-    <cfRule type="expression" dxfId="147" priority="162">
+    <cfRule type="expression" dxfId="87" priority="162">
       <formula>OR(M$14="", M$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M115:M120">
-    <cfRule type="expression" dxfId="146" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="159" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M121">
-    <cfRule type="expression" dxfId="145" priority="160">
+    <cfRule type="expression" dxfId="85" priority="160">
       <formula>OR(M$14="", M$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M127:M128">
-    <cfRule type="expression" dxfId="144" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="158" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M130:M132">
-    <cfRule type="expression" dxfId="143" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="157" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M135:M136">
-    <cfRule type="expression" dxfId="142" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="156" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53:N64">
-    <cfRule type="expression" dxfId="141" priority="26">
+    <cfRule type="expression" dxfId="81" priority="26">
       <formula>OR(N$12="", N$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73:N84">
-    <cfRule type="expression" dxfId="140" priority="24">
+    <cfRule type="expression" dxfId="80" priority="24">
       <formula>OR(N$12="", N$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N85:N86">
-    <cfRule type="expression" dxfId="139" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="25" stopIfTrue="1">
       <formula>OR(N$13="", N$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N94:N105">
-    <cfRule type="expression" dxfId="138" priority="22">
+    <cfRule type="expression" dxfId="78" priority="22">
       <formula>OR(N$12="", N$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N106:N107">
-    <cfRule type="expression" dxfId="137" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="23" stopIfTrue="1">
       <formula>OR(N$13="", N$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O73:O82 O85:O89">
-    <cfRule type="expression" dxfId="136" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="155" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O94:O103 O106:O110">
-    <cfRule type="expression" dxfId="135" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="153" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O111">
-    <cfRule type="expression" dxfId="134" priority="154">
+    <cfRule type="expression" dxfId="74" priority="154">
       <formula>OR(O$14="", O$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O115:O120">
-    <cfRule type="expression" dxfId="133" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="151" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O121">
-    <cfRule type="expression" dxfId="132" priority="152">
+    <cfRule type="expression" dxfId="72" priority="152">
       <formula>OR(O$14="", O$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O127:O128">
-    <cfRule type="expression" dxfId="131" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="150" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O130:O132">
-    <cfRule type="expression" dxfId="130" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="149" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O135:O136">
-    <cfRule type="expression" dxfId="129" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="148" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P73:P86">
-    <cfRule type="expression" dxfId="128" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="21" stopIfTrue="1">
       <formula>OR(P$13="", P$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P94:P107">
-    <cfRule type="expression" dxfId="127" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="20" stopIfTrue="1">
       <formula>OR(P$13="", P$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q73:Q82 Q85:Q89">
-    <cfRule type="expression" dxfId="126" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="147" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q94:Q103 Q106:Q110">
-    <cfRule type="expression" dxfId="125" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="145" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q111">
-    <cfRule type="expression" dxfId="124" priority="146">
+    <cfRule type="expression" dxfId="64" priority="146">
       <formula>OR(Q$14="", Q$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q115:Q120">
-    <cfRule type="expression" dxfId="123" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="143" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q121">
-    <cfRule type="expression" dxfId="122" priority="144">
+    <cfRule type="expression" dxfId="62" priority="144">
       <formula>OR(Q$14="", Q$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q127:Q128">
-    <cfRule type="expression" dxfId="121" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="142" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q130:Q132">
-    <cfRule type="expression" dxfId="120" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="141" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135:Q136">
-    <cfRule type="expression" dxfId="119" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="140" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R55:R58">
-    <cfRule type="expression" dxfId="118" priority="19">
+    <cfRule type="expression" dxfId="58" priority="19">
       <formula>OR(R$12="", R$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R73:R74 R79:R86">
-    <cfRule type="expression" dxfId="117" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="18" stopIfTrue="1">
       <formula>OR(R$13="", R$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R75:R78">
-    <cfRule type="expression" dxfId="116" priority="17">
+    <cfRule type="expression" dxfId="56" priority="17">
       <formula>OR(R$12="", R$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R94:R95 R100:R107">
-    <cfRule type="expression" dxfId="115" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="16" stopIfTrue="1">
       <formula>OR(R$13="", R$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R96:R99">
-    <cfRule type="expression" dxfId="114" priority="15">
+    <cfRule type="expression" dxfId="54" priority="15">
       <formula>OR(R$12="", R$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S73:S82 S85:S89">
-    <cfRule type="expression" dxfId="113" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="139" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S94:S103 S106:S110">
-    <cfRule type="expression" dxfId="112" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="137" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S111">
-    <cfRule type="expression" dxfId="111" priority="138">
+    <cfRule type="expression" dxfId="51" priority="138">
       <formula>OR(S$14="", S$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S115:S120">
-    <cfRule type="expression" dxfId="110" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="135" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S121">
-    <cfRule type="expression" dxfId="109" priority="136">
+    <cfRule type="expression" dxfId="49" priority="136">
       <formula>OR(S$14="", S$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S127:S128">
-    <cfRule type="expression" dxfId="108" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="134" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S130:S132">
-    <cfRule type="expression" dxfId="107" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="133" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:S136">
-    <cfRule type="expression" dxfId="106" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="132" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U73:U82 U85:U89">
-    <cfRule type="expression" dxfId="105" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="131" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U94:U103 U106:U110">
-    <cfRule type="expression" dxfId="104" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="129" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U111">
-    <cfRule type="expression" dxfId="103" priority="130">
+    <cfRule type="expression" dxfId="43" priority="130">
       <formula>OR(U$14="", U$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U115:U120">
-    <cfRule type="expression" dxfId="102" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="127" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U121">
-    <cfRule type="expression" dxfId="101" priority="128">
+    <cfRule type="expression" dxfId="41" priority="128">
       <formula>OR(U$14="", U$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U127:U128">
-    <cfRule type="expression" dxfId="100" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="126" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U130:U132">
-    <cfRule type="expression" dxfId="99" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="125" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U135:U136">
-    <cfRule type="expression" dxfId="98" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="124" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W73:W82 W85:W89">
-    <cfRule type="expression" dxfId="97" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="123" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W94:W103 W106:W110">
-    <cfRule type="expression" dxfId="96" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="121" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W111">
-    <cfRule type="expression" dxfId="95" priority="122">
+    <cfRule type="expression" dxfId="35" priority="122">
       <formula>OR(W$14="", W$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W115:W120">
-    <cfRule type="expression" dxfId="94" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="119" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W121">
-    <cfRule type="expression" dxfId="93" priority="120">
+    <cfRule type="expression" dxfId="33" priority="120">
       <formula>OR(W$14="", W$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W127:W128">
-    <cfRule type="expression" dxfId="92" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="118" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W130:W132">
-    <cfRule type="expression" dxfId="91" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="117" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W135:W136">
-    <cfRule type="expression" dxfId="90" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="116" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X38:X41">
-    <cfRule type="expression" dxfId="89" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="14" stopIfTrue="1">
       <formula>OR(X$11="", X$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X53:X54">
-    <cfRule type="expression" dxfId="88" priority="13">
+    <cfRule type="expression" dxfId="28" priority="13">
       <formula>OR(X$12="", X$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X55:X58">
-    <cfRule type="expression" dxfId="87" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
       <formula>OR(X$11="", X$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X73:X74">
-    <cfRule type="expression" dxfId="86" priority="9">
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>OR(X$12="", X$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X75:X78">
-    <cfRule type="expression" dxfId="85" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>OR(X$11="", X$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X79:X86">
-    <cfRule type="expression" dxfId="84" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="10" stopIfTrue="1">
       <formula>OR(X$13="", X$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X94:X95">
-    <cfRule type="expression" dxfId="83" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>OR(X$12="", X$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X96:X99">
-    <cfRule type="expression" dxfId="82" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
       <formula>OR(X$11="", X$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X100:X107">
-    <cfRule type="expression" dxfId="81" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
       <formula>OR(X$13="", X$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y73:Y82 Y85:Y89">
-    <cfRule type="expression" dxfId="80" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="115" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y94:Y103 Y106:Y110">
-    <cfRule type="expression" dxfId="79" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="113" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y111">
-    <cfRule type="expression" dxfId="78" priority="114">
+    <cfRule type="expression" dxfId="18" priority="114">
       <formula>OR(Y$14="", Y$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y115:Y120">
-    <cfRule type="expression" dxfId="77" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="111" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y121">
-    <cfRule type="expression" dxfId="76" priority="112">
+    <cfRule type="expression" dxfId="16" priority="112">
       <formula>OR(Y$14="", Y$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y127:Y128">
-    <cfRule type="expression" dxfId="75" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="110" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y130:Y132">
-    <cfRule type="expression" dxfId="74" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="109" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y135:Y136">
-    <cfRule type="expression" dxfId="73" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="108" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z53:Z58">
-    <cfRule type="expression" dxfId="72" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>OR(Z$12="", Z$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z73:Z78">
-    <cfRule type="expression" dxfId="71" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>OR(Z$12="", Z$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z79:Z86">
-    <cfRule type="expression" dxfId="70" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>OR(Z$13="", Z$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z94:Z99">
-    <cfRule type="expression" dxfId="69" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>OR(Z$12="", Z$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z100:Z107">
-    <cfRule type="expression" dxfId="68" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>OR(Z$13="", Z$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA73:AA82 AA85:AA89">
-    <cfRule type="expression" dxfId="67" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="103" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA94:AA103 AA106:AA110">
-    <cfRule type="expression" dxfId="66" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="101" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA111">
-    <cfRule type="expression" dxfId="65" priority="102">
+    <cfRule type="expression" dxfId="5" priority="102">
       <formula>OR(AA$14="", AA$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA115:AA120">
-    <cfRule type="expression" dxfId="64" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="99" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121">
-    <cfRule type="expression" dxfId="63" priority="100">
+    <cfRule type="expression" dxfId="3" priority="100">
       <formula>OR(AA$14="", AA$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA127:AA128">
-    <cfRule type="expression" dxfId="62" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="98" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA130:AA132">
-    <cfRule type="expression" dxfId="61" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="97" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA135:AA136">
-    <cfRule type="expression" dxfId="60" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="96" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB34:AB35 AD34:AD49 AF34:AF49 AH34:AH49 AJ34:AJ49 AL34:AL49 AA36:AC49 AE36:AE49 AG36:AG49 AI36:AI49 AK36:AK49 AM36:AM49">
-    <cfRule type="expression" dxfId="59" priority="95">
-      <formula>OR(AA$12="", AA$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB51:AB52 AD51:AD69 AF51:AF69 AH51:AH69 AJ51:AJ69 AL51:AL69 AA53:AC62 AE53:AE62 AG53:AG62 AI53:AI62 AK53:AK62 AM53:AM62 AB63:AB64 AA65:AC69 AE65:AE69 AG65:AG69 AI65:AI69 AK65:AK69 AM65:AM69">
-    <cfRule type="expression" dxfId="58" priority="94" stopIfTrue="1">
-      <formula>OR(AA$13="", AA$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB71:AB89 AD71:AD90 AF71:AF90 AH71:AH90 AJ71:AJ90 AL71:AL90 AA90:AC90 AE90 AG90 AI90 AK90 AM90">
-    <cfRule type="expression" dxfId="57" priority="93">
-      <formula>OR(AA$14="", AA$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB92:AB111 AD92:AD111 AF92:AF111 AH92:AH111 AJ92:AJ111 AL92:AL111">
-    <cfRule type="expression" dxfId="56" priority="92" stopIfTrue="1">
-      <formula>OR(AB$15="", AB$15="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB114:AB121 AD114:AD121 AF114:AF121 AH114:AH121 AJ114:AJ121 AL114:AL121">
-    <cfRule type="expression" dxfId="55" priority="91" stopIfTrue="1">
-      <formula>OR(AB$17="", AB$17="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB123:AB132">
-    <cfRule type="expression" dxfId="54" priority="39">
-      <formula>OR(AB$16="", AB$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB134:AB137 AD134:AD137 AF134:AF137 AH134:AH137 AJ134:AJ137 AL134:AL137">
-    <cfRule type="expression" dxfId="53" priority="89" stopIfTrue="1">
-      <formula>OR(AB$18="Prohibited", AB$18="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC73:AC82 AC85:AC89">
-    <cfRule type="expression" dxfId="52" priority="88" stopIfTrue="1">
-      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC94:AC103 AC106:AC110">
-    <cfRule type="expression" dxfId="51" priority="86" stopIfTrue="1">
-      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC111">
-    <cfRule type="expression" dxfId="50" priority="87">
-      <formula>OR(AC$14="", AC$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC115:AC120">
-    <cfRule type="expression" dxfId="49" priority="84" stopIfTrue="1">
-      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC121">
-    <cfRule type="expression" dxfId="48" priority="85">
-      <formula>OR(AC$14="", AC$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC127:AC128">
-    <cfRule type="expression" dxfId="47" priority="83" stopIfTrue="1">
-      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC130:AC132">
-    <cfRule type="expression" dxfId="46" priority="82" stopIfTrue="1">
-      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC135:AC136">
-    <cfRule type="expression" dxfId="45" priority="81" stopIfTrue="1">
-      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD123:AD132">
-    <cfRule type="expression" dxfId="44" priority="38">
-      <formula>OR(AD$16="", AD$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE73:AE82 AE85:AE89">
-    <cfRule type="expression" dxfId="43" priority="80" stopIfTrue="1">
-      <formula>OR(AE$13="", AE$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE94:AE103 AE106:AE110">
-    <cfRule type="expression" dxfId="42" priority="78" stopIfTrue="1">
-      <formula>OR(AE$13="", AE$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE111">
-    <cfRule type="expression" dxfId="41" priority="79">
-      <formula>OR(AE$14="", AE$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE115:AE120">
-    <cfRule type="expression" dxfId="40" priority="76" stopIfTrue="1">
-      <formula>OR(AE$13="", AE$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE121">
-    <cfRule type="expression" dxfId="39" priority="77">
-      <formula>OR(AE$14="", AE$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE127:AE128">
-    <cfRule type="expression" dxfId="38" priority="75" stopIfTrue="1">
-      <formula>OR(AE$13="", AE$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE130:AE132">
-    <cfRule type="expression" dxfId="37" priority="74" stopIfTrue="1">
-      <formula>OR(AE$13="", AE$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE135:AE136">
-    <cfRule type="expression" dxfId="36" priority="73" stopIfTrue="1">
-      <formula>OR(AE$13="", AE$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF123:AF132">
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>OR(AF$16="", AF$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG73:AG82 AG85:AG89">
-    <cfRule type="expression" dxfId="34" priority="72" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG94:AG103 AG106:AG110">
-    <cfRule type="expression" dxfId="33" priority="70" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG111">
-    <cfRule type="expression" dxfId="32" priority="71">
-      <formula>OR(AG$14="", AG$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG115:AG120">
-    <cfRule type="expression" dxfId="31" priority="68" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG121">
-    <cfRule type="expression" dxfId="30" priority="69">
-      <formula>OR(AG$14="", AG$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG127:AG128">
-    <cfRule type="expression" dxfId="29" priority="67" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG130:AG132">
-    <cfRule type="expression" dxfId="28" priority="66" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG135:AG136">
-    <cfRule type="expression" dxfId="27" priority="65" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH123:AH132">
-    <cfRule type="expression" dxfId="26" priority="36">
-      <formula>OR(AH$16="", AH$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI73:AI82 AI85:AI89">
-    <cfRule type="expression" dxfId="25" priority="64" stopIfTrue="1">
-      <formula>OR(AI$13="", AI$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI94:AI103 AI106:AI110">
-    <cfRule type="expression" dxfId="24" priority="62" stopIfTrue="1">
-      <formula>OR(AI$13="", AI$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI111">
-    <cfRule type="expression" dxfId="23" priority="63">
-      <formula>OR(AI$14="", AI$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI115:AI120">
-    <cfRule type="expression" dxfId="22" priority="60" stopIfTrue="1">
-      <formula>OR(AI$13="", AI$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI121">
-    <cfRule type="expression" dxfId="21" priority="61">
-      <formula>OR(AI$14="", AI$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI127:AI128">
-    <cfRule type="expression" dxfId="20" priority="59" stopIfTrue="1">
-      <formula>OR(AI$13="", AI$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI130:AI132">
-    <cfRule type="expression" dxfId="19" priority="58" stopIfTrue="1">
-      <formula>OR(AI$13="", AI$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI135:AI136">
-    <cfRule type="expression" dxfId="18" priority="57" stopIfTrue="1">
-      <formula>OR(AI$13="", AI$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ123:AJ132">
-    <cfRule type="expression" dxfId="17" priority="35">
-      <formula>OR(AJ$16="", AJ$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK73:AK82 AK85:AK89">
-    <cfRule type="expression" dxfId="16" priority="56" stopIfTrue="1">
-      <formula>OR(AK$13="", AK$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK94:AK103 AK106:AK110">
-    <cfRule type="expression" dxfId="15" priority="54" stopIfTrue="1">
-      <formula>OR(AK$13="", AK$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK111">
-    <cfRule type="expression" dxfId="14" priority="55">
-      <formula>OR(AK$14="", AK$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK115:AK120">
-    <cfRule type="expression" dxfId="13" priority="52" stopIfTrue="1">
-      <formula>OR(AK$13="", AK$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK121">
-    <cfRule type="expression" dxfId="12" priority="53">
-      <formula>OR(AK$14="", AK$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK127:AK128">
-    <cfRule type="expression" dxfId="11" priority="51" stopIfTrue="1">
-      <formula>OR(AK$13="", AK$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK130:AK132">
-    <cfRule type="expression" dxfId="10" priority="50" stopIfTrue="1">
-      <formula>OR(AK$13="", AK$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK135:AK136">
-    <cfRule type="expression" dxfId="9" priority="49" stopIfTrue="1">
-      <formula>OR(AK$13="", AK$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL123:AL132">
-    <cfRule type="expression" dxfId="8" priority="34">
-      <formula>OR(AL$16="", AL$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM73:AM82 AM85:AM89">
-    <cfRule type="expression" dxfId="7" priority="48" stopIfTrue="1">
-      <formula>OR(AM$13="", AM$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM94:AM103 AM106:AM110">
-    <cfRule type="expression" dxfId="6" priority="46" stopIfTrue="1">
-      <formula>OR(AM$13="", AM$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM111">
-    <cfRule type="expression" dxfId="5" priority="47">
-      <formula>OR(AM$14="", AM$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM115:AM120">
-    <cfRule type="expression" dxfId="4" priority="44" stopIfTrue="1">
-      <formula>OR(AM$13="", AM$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM121">
-    <cfRule type="expression" dxfId="3" priority="45">
-      <formula>OR(AM$14="", AM$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM127:AM128">
-    <cfRule type="expression" dxfId="2" priority="43" stopIfTrue="1">
-      <formula>OR(AM$13="", AM$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM130:AM132">
-    <cfRule type="expression" dxfId="1" priority="42" stopIfTrue="1">
-      <formula>OR(AM$13="", AM$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM135:AM136">
-    <cfRule type="expression" dxfId="0" priority="41" stopIfTrue="1">
-      <formula>OR(AM$13="", AM$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12502,91 +9658,91 @@
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B11:AM15</xm:sqref>
+          <xm:sqref>B11:AA15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{390FA64D-BC39-BB40-8BA0-1E011160B117}">
           <x14:formula1>
             <xm:f>Options!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B34:B35 C104:C105 C71:C72 C83:C84 C92:C93 E92:G93 E104:G105 E71:G72 E83:G84 I92:I93 I104:I105 I71:I72 I83:I84 K92:K93 K104:K105 K71:K72 K83:K84 M83:M84 M92:M93 M104:M105 M71:M72 O92:O93 O71:O72 Q92:Q93 Q71:Q72 O83:S84 S92:S93 O104:S105 S71:S72 U83:U84 U92:U93 U104:U105 U71:U72 W92:W93 W71:W72 Y92:Y93 Y71:Y72 W83:AA84 AA92:AA93 W104:AA105 AA71:AA72 D34:D35 F34:F35 H34:H35 J34:J35 L34:L35 N34:N35 P34:P35 R34:R35 T34:T35 V34:V35 X34:X35 AL123:AL125 B9:AM10 B51:AM52 B139:AM139 B141:AM142 B134:AM134 B5:AM7 Z34:Z35 AB34:AB35 AC104:AC105 AC71:AC72 AC83:AC84 AC92:AC93 AE92:AE93 AE104:AE105 AE71:AE72 AE83:AE84 AG92:AG93 AG104:AG105 AG71:AG72 AG83:AG84 AI92:AI93 AI104:AI105 AI71:AI72 AI83:AI84 AK92:AK93 AK104:AK105 AK71:AK72 AK83:AK84 AM83:AM84 AM92:AM93 AM104:AM105 AM71:AM72 AD34:AD35 AF34:AF35 AH34:AH35 AJ34:AJ35 AL34:AL35 B123:B125 D123:D125 F123:F125 H123:H125 J123:J125 L123:L125 N123:N125 P123:P125 R123:R125 T123:T125 V123:V125 X123:X125 Z123:Z125 AB123:AB125 AD123:AD125 AF123:AF125 AH123:AH125 AJ123:AJ125 B63:I64 K63:M64 O63:AM64</xm:sqref>
+          <xm:sqref>B34:B35 C104:C105 C71:C72 C83:C84 C92:C93 E92:G93 E104:G105 E71:G72 E83:G84 I92:I93 I104:I105 I71:I72 I83:I84 K92:K93 K104:K105 K71:K72 K83:K84 M83:M84 M92:M93 M104:M105 M71:M72 O92:O93 O71:O72 Q92:Q93 Q71:Q72 O83:S84 S92:S93 O104:S105 S71:S72 U83:U84 U92:U93 U104:U105 U71:U72 W92:W93 W71:W72 Y92:Y93 Y71:Y72 W83:AA84 AA92:AA93 W104:AA105 AA71:AA72 D34:D35 F34:F35 H34:H35 J34:J35 L34:L35 N34:N35 P34:P35 R34:R35 T34:T35 V34:V35 X34:X35 B9:AA10 B51:AA52 B139:AA139 B141:AA142 B134:AA134 B5:AA7 Z34:Z35 B123:B125 D123:D125 F123:F125 H123:H125 J123:J125 L123:L125 N123:N125 P123:P125 R123:R125 T123:T125 V123:V125 X123:X125 Z123:Z125 B63:I64 K63:M64 O63:AA64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9CD4731-5D38-314E-829D-4358262BBF3E}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B20 B16:B18 C16:C20 R20 T16:T18 P16:P18 D20 D16:D18 E16:E20 F20 F16:F18 G16:G20 H20 H16:H18 I16:I20 J20 J16:J18 K16:K20 L20 L16:L18 M16:M20 N20 N16:N18 O16:O20 P20 AM16:AM20 Q16:Q20 S16:S20 T20 U16:U20 V16:V18 V20 W16:W20 X16:X18 X20 Y16:Y20 AA16:AA20 Z20 Z16:Z18 AB20 AB16:AB18 AC16:AC20 AD20 AD16:AD18 AE16:AE20 AF20 AF16:AF18 AG16:AG20 AH20 AH16:AH18 AI16:AI20 AJ20 AJ16:AJ18 AK16:AK20 AL20 AL16:AL18 R16:R18</xm:sqref>
+          <xm:sqref>B20 B16:B18 C16:C20 R20 T16:T18 P16:P18 D20 D16:D18 E16:E20 F20 F16:F18 G16:G20 H20 H16:H18 I16:I20 J20 J16:J18 K16:K20 L20 L16:L18 M16:M20 N20 N16:N18 O16:O20 P20 Q16:Q20 S16:S20 T20 U16:U20 V16:V18 V20 W16:W20 X16:X18 X20 Y16:Y20 AA16:AA20 Z20 Z16:Z18 R16:R18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9D987583-DF19-C847-98CE-62D957C6A111}">
           <x14:formula1>
             <xm:f>Options!$B$8:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C21 C36 C53 C73 C94 C115 C127 C135 S21 S36 S53 S73 S94 S115 S127 S135 E21 E36 E53 E73 E94 E115 E127 E135 G21 G36 G53 G73 G94 G115 G127 G135 I21 I36 I53 I73 I94 I115 I127 I135 K21 K36 K53 K73 K94 K115 K127 K135 M21 M36 M53 M73 M94 M115 M127 M135 O21 O36 O53 O73 O94 O115 O127 O135 Q21 Q36 Q53 Q73 Q94 Q115 Q127 Q135 U21 U36 U53 U73 U94 U115 U127 U135 W21 W36 W53 W73 W94 W115 W127 W135 Y21 Y36 Y53 Y73 Y94 Y115 Y127 Y135 AA21 AA36 AA53 AA73 AA94 AA115 AA127 AA135 AC21 AC36 AC53 AC73 AC94 AC115 AC127 AC135 AE21 AE36 AE53 AE73 AE94 AE115 AE127 AE135 AG21 AG36 AG53 AG73 AG94 AG115 AG127 AG135 AI21 AI36 AI53 AI73 AI94 AI115 AI127 AI135 AK21 AK36 AK53 AK73 AK94 AK115 AK127 AK135 AM21 AM36 AM53 AM73 AM94 AM115 AM127 AM135</xm:sqref>
+          <xm:sqref>C21 C36 C53 C73 C94 C115 C127 C135 S21 S36 S53 S73 S94 S115 S127 S135 E21 E36 E53 E73 E94 E115 E127 E135 G21 G36 G53 G73 G94 G115 G127 G135 I21 I36 I53 I73 I94 I115 I127 I135 K21 K36 K53 K73 K94 K115 K127 K135 M21 M36 M53 M73 M94 M115 M127 M135 O21 O36 O53 O73 O94 O115 O127 O135 Q21 Q36 Q53 Q73 Q94 Q115 Q127 Q135 U21 U36 U53 U73 U94 U115 U127 U135 W21 W36 W53 W73 W94 W115 W127 W135 Y21 Y36 Y53 Y73 Y94 Y115 Y127 Y135 AA21 AA36 AA53 AA73 AA94 AA115 AA127 AA135</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A58B297-4176-C142-BFE2-5FAE35D5A495}">
           <x14:formula1>
             <xm:f>Options!$C$8:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C22:C25 C30 C38:C41 C47 C66 C55:C58 C86 C75:C78 C107 C96:C99 S22:S25 S30 S38:S41 S47 S66 S55:S58 S86 S75:S78 S107 S96:S99 E22:E25 E30 E38:E41 E47 E66 E55:E58 E86 E75:E78 E107 E96:E99 G22:G25 G30 G38:G41 G47 G66 G55:G58 G86 G75:G78 G107 G96:G99 I22:I25 I30 I38:I41 I47 I66 I55:I58 I86 I75:I78 I107 I96:I99 K22:K25 K30 K38:K41 K47 K66 K55:K58 K86 K75:K78 K107 K96:K99 M22:M25 M30 M38:M41 M47 M66 M55:M58 M86 M75:M78 M107 M96:M99 O22:O25 O30 O38:O41 O47 O66 O55:O58 O86 O75:O78 O107 O96:O99 Q22:Q25 Q30 Q38:Q41 Q47 Q66 Q55:Q58 Q86 Q75:Q78 Q107 Q96:Q99 U22:U25 U30 U38:U41 U47 U66 U55:U58 U86 U75:U78 U107 U96:U99 W22:W25 W30 W38:W41 W47 W66 W55:W58 W86 W75:W78 W107 W96:W99 Y22:Y25 Y30 Y38:Y41 Y47 Y66 Y55:Y58 Y86 Y75:Y78 Y107 Y96:Y99 AA22:AA25 AA30 AA38:AA41 AA47 AA66 AA55:AA58 AA86 AA75:AA78 AA107 AA96:AA99 AC22:AC25 AC30 AC38:AC41 AC47 AC66 AC55:AC58 AC86 AC75:AC78 AC107 AC96:AC99 AE22:AE25 AE30 AE38:AE41 AE47 AE66 AE55:AE58 AE86 AE75:AE78 AE107 AE96:AE99 AG22:AG25 AG30 AG38:AG41 AG47 AG66 AG55:AG58 AG86 AG75:AG78 AG107 AG96:AG99 AI22:AI25 AI30 AI38:AI41 AI47 AI66 AI55:AI58 AI86 AI75:AI78 AI107 AI96:AI99 AK22:AK25 AK30 AK38:AK41 AK47 AK66 AK55:AK58 AK86 AK75:AK78 AK107 AK96:AK99 AM22:AM25 AM30 AM38:AM41 AM47 AM66 AM55:AM58 AM86 AM75:AM78 AM107 AM96:AM99</xm:sqref>
+          <xm:sqref>C22:C25 C30 C38:C41 C47 C66 C55:C58 C86 C75:C78 C107 C96:C99 S22:S25 S30 S38:S41 S47 S66 S55:S58 S86 S75:S78 S107 S96:S99 E22:E25 E30 E38:E41 E47 E66 E55:E58 E86 E75:E78 E107 E96:E99 G22:G25 G30 G38:G41 G47 G66 G55:G58 G86 G75:G78 G107 G96:G99 I22:I25 I30 I38:I41 I47 I66 I55:I58 I86 I75:I78 I107 I96:I99 K22:K25 K30 K38:K41 K47 K66 K55:K58 K86 K75:K78 K107 K96:K99 M22:M25 M30 M38:M41 M47 M66 M55:M58 M86 M75:M78 M107 M96:M99 O22:O25 O30 O38:O41 O47 O66 O55:O58 O86 O75:O78 O107 O96:O99 Q22:Q25 Q30 Q38:Q41 Q47 Q66 Q55:Q58 Q86 Q75:Q78 Q107 Q96:Q99 U22:U25 U30 U38:U41 U47 U66 U55:U58 U86 U75:U78 U107 U96:U99 W22:W25 W30 W38:W41 W47 W66 W55:W58 W86 W75:W78 W107 W96:W99 Y22:Y25 Y30 Y38:Y41 Y47 Y66 Y55:Y58 Y86 Y75:Y78 Y107 Y96:Y99 AA22:AA25 AA30 AA38:AA41 AA47 AA66 AA55:AA58 AA86 AA75:AA78 AA107 AA96:AA99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38F82449-65ED-2B46-894E-2362DD296097}">
           <x14:formula1>
             <xm:f>Options!$D$8:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C26:C27 C42:C43 C59:C60 C79:C80 C100:C101 C130 S26:S27 S42:S43 S59:S60 S79:S80 S100:S101 S130 E26:E27 E42:E43 E59:E60 E79:E80 E100:E101 E130 G26:G27 G42:G43 G59:G60 G79:G80 G100:G101 G130 I26:I27 I42:I43 I59:I60 I79:I80 I100:I101 I130 K26:K27 K42:K43 K59:K60 K79:K80 K100:K101 K130 M26:M27 M42:M43 M59:M60 M79:M80 M100:M101 M130 O26:O27 O42:O43 O59:O60 O79:O80 O100:O101 O130 Q26:Q27 Q42:Q43 Q59:Q60 Q79:Q80 Q100:Q101 Q130 U26:U27 U42:U43 U59:U60 U79:U80 U100:U101 U130 W26:W27 W42:W43 W59:W60 W79:W80 W100:W101 W130 Y26:Y27 Y42:Y43 Y59:Y60 Y79:Y80 Y100:Y101 Y130 AA26:AA27 AA42:AA43 AA59:AA60 AA79:AA80 AA100:AA101 AA130 AC26:AC27 AC42:AC43 AC59:AC60 AC79:AC80 AC100:AC101 AC130 AE26:AE27 AE42:AE43 AE59:AE60 AE79:AE80 AE100:AE101 AE130 AG26:AG27 AG42:AG43 AG59:AG60 AG79:AG80 AG100:AG101 AG130 AI26:AI27 AI42:AI43 AI59:AI60 AI79:AI80 AI100:AI101 AI130 AK26:AK27 AK42:AK43 AK59:AK60 AK79:AK80 AK100:AK101 AK130 AM26:AM27 AM42:AM43 AM59:AM60 AM79:AM80 AM100:AM101 AM130</xm:sqref>
+          <xm:sqref>C26:C27 C42:C43 C59:C60 C79:C80 C100:C101 C130 S26:S27 S42:S43 S59:S60 S79:S80 S100:S101 S130 E26:E27 E42:E43 E59:E60 E79:E80 E100:E101 E130 G26:G27 G42:G43 G59:G60 G79:G80 G100:G101 G130 I26:I27 I42:I43 I59:I60 I79:I80 I100:I101 I130 K26:K27 K42:K43 K59:K60 K79:K80 K100:K101 K130 M26:M27 M42:M43 M59:M60 M79:M80 M100:M101 M130 O26:O27 O42:O43 O59:O60 O79:O80 O100:O101 O130 Q26:Q27 Q42:Q43 Q59:Q60 Q79:Q80 Q100:Q101 Q130 U26:U27 U42:U43 U59:U60 U79:U80 U100:U101 U130 W26:W27 W42:W43 W59:W60 W79:W80 W100:W101 W130 Y26:Y27 Y42:Y43 Y59:Y60 Y79:Y80 Y100:Y101 Y130 AA26:AA27 AA42:AA43 AA59:AA60 AA79:AA80 AA100:AA101 AA130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3ED10EF8-8297-B742-B7FC-EF775037FBAF}">
           <x14:formula1>
             <xm:f>Options!$F$8:$F$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C29 C46 C65 C85 C106 S29 S46 S65 S85 S106 E29 E46 E65 E85 E106 G29 G46 G65 G85 G106 I29 I46 I65 I85 I106 K29 K46 K65 K85 K106 M29 M46 M65 M85 M106 O29 O46 O65 O85 O106 Q29 Q46 Q65 Q85 Q106 U29 U46 U65 U85 U106 W29 W46 W65 W85 W106 Y29 Y46 Y65 Y85 Y106 AA29 AA46 AA65 AA85 AA106 AC29 AC46 AC65 AC85 AC106 AE29 AE46 AE65 AE85 AE106 AG29 AG46 AG65 AG85 AG106 AI29 AI46 AI65 AI85 AI106 AK29 AK46 AK65 AK85 AK106 AM29 AM46 AM65 AM85 AM106</xm:sqref>
+          <xm:sqref>C29 C46 C65 C85 C106 S29 S46 S65 S85 S106 E29 E46 E65 E85 E106 G29 G46 G65 G85 G106 I29 I46 I65 I85 I106 K29 K46 K65 K85 K106 M29 M46 M65 M85 M106 O29 O46 O65 O85 O106 Q29 Q46 Q65 Q85 Q106 U29 U46 U65 U85 U106 W29 W46 W65 W85 W106 Y29 Y46 Y65 Y85 Y106 AA29 AA46 AA65 AA85 AA106</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F56AE27B-F1BB-6F4F-8428-3E273C820298}">
           <x14:formula1>
             <xm:f>Options!$G$8:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C31 C48 C67 C87 C108 S31 S48 S67 S87 S108 E31 E48 E67 E87 E108 G31 G48 G67 G87 G108 I31 I48 I67 I87 I108 K31 K48 K67 K87 K108 M31 M48 M67 M87 M108 O31 O48 O67 O87 O108 Q31 Q48 Q67 Q87 Q108 U31 U48 U67 U87 U108 W31 W48 W67 W87 W108 Y31 Y48 Y67 Y87 Y108 AA31 AA48 AA67 AA87 AA108 AC31 AC48 AC67 AC87 AC108 AE31 AE48 AE67 AE87 AE108 AG31 AG48 AG67 AG87 AG108 AI31 AI48 AI67 AI87 AI108 AK31 AK48 AK67 AK87 AK108 AM31 AM48 AM67 AM87 AM108</xm:sqref>
+          <xm:sqref>C31 C48 C67 C87 C108 S31 S48 S67 S87 S108 E31 E48 E67 E87 E108 G31 G48 G67 G87 G108 I31 I48 I67 I87 I108 K31 K48 K67 K87 K108 M31 M48 M67 M87 M108 O31 O48 O67 O87 O108 Q31 Q48 Q67 Q87 Q108 U31 U48 U67 U87 U108 W31 W48 W67 W87 W108 Y31 Y48 Y67 Y87 Y108 AA31 AA48 AA67 AA87 AA108</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{580E3213-A5C6-A842-910E-3BBA6BCAD3A3}">
           <x14:formula1>
             <xm:f>Options!$H$8:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C32 C49 C68 C88 C109 C119 C131 S32 S49 S68 S88 S109 S119 S131 E32 E49 E68 E88 E109 E119 E131 G32 G49 G68 G88 G109 G119 G131 I32 I49 I68 I88 I109 I119 I131 K32 K49 K68 K88 K109 K119 K131 M32 M49 M68 M88 M109 M119 M131 O32 O49 O68 O88 O109 O119 O131 Q32 Q49 Q68 Q88 Q109 Q119 Q131 U32 U49 U68 U88 U109 U119 U131 W32 W49 W68 W88 W109 W119 W131 Y32 Y49 Y68 Y88 Y109 Y119 Y131 AA32 AA49 AA68 AA88 AA109 AA119 AA131 AC32 AC49 AC68 AC88 AC109 AC119 AC131 AE32 AE49 AE68 AE88 AE109 AE119 AE131 AG32 AG49 AG68 AG88 AG109 AG119 AG131 AI32 AI49 AI68 AI88 AI109 AI119 AI131 AK32 AK49 AK68 AK88 AK109 AK119 AK131 AM32 AM49 AM68 AM88 AM109 AM119 AM131</xm:sqref>
+          <xm:sqref>C32 C49 C68 C88 C109 C119 C131 S32 S49 S68 S88 S109 S119 S131 E32 E49 E68 E88 E109 E119 E131 G32 G49 G68 G88 G109 G119 G131 I32 I49 I68 I88 I109 I119 I131 K32 K49 K68 K88 K109 K119 K131 M32 M49 M68 M88 M109 M119 M131 O32 O49 O68 O88 O109 O119 O131 Q32 Q49 Q68 Q88 Q109 Q119 Q131 U32 U49 U68 U88 U109 U119 U131 W32 W49 W68 W88 W109 W119 W131 Y32 Y49 Y68 Y88 Y109 Y119 Y131 AA32 AA49 AA68 AA88 AA109 AA119 AA131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A61314F3-A7E4-7D44-BD9C-12BB83BBC7D6}">
           <x14:formula1>
             <xm:f>Options!$I$8:$I$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C37 C54 C74 C95 C116 C136 S37 S54 S74 S95 S116 S136 E37 E54 E74 E95 E116 E136 G37 G54 G74 G95 G116 G136 I37 I54 I74 I95 I116 I136 K37 K54 K74 K95 K116 K136 M37 M54 M74 M95 M116 M136 O37 O54 O74 O95 O116 O136 Q37 Q54 Q74 Q95 Q116 Q136 U37 U54 U74 U95 U116 U136 W37 W54 W74 W95 W116 W136 Y37 Y54 Y74 Y95 Y116 Y136 AA37 AA54 AA74 AA95 AA116 AA136 AC37 AC54 AC74 AC95 AC116 AC136 AE37 AE54 AE74 AE95 AE116 AE136 AG37 AG54 AG74 AG95 AG116 AG136 AI37 AI54 AI74 AI95 AI116 AI136 AK37 AK54 AK74 AK95 AK116 AK136 AM37 AM54 AM74 AM95 AM116 AM136</xm:sqref>
+          <xm:sqref>C37 C54 C74 C95 C116 C136 S37 S54 S74 S95 S116 S136 E37 E54 E74 E95 E116 E136 G37 G54 G74 G95 G116 G136 I37 I54 I74 I95 I116 I136 K37 K54 K74 K95 K116 K136 M37 M54 M74 M95 M116 M136 O37 O54 O74 O95 O116 O136 Q37 Q54 Q74 Q95 Q116 Q136 U37 U54 U74 U95 U116 U136 W37 W54 W74 W95 W116 W136 Y37 Y54 Y74 Y95 Y116 Y136 AA37 AA54 AA74 AA95 AA116 AA136</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{300FFD76-A928-344E-9C47-B16E38D729A1}">
           <x14:formula1>
             <xm:f>Options!$E$8:$E$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C44:C45 C61:C62 C81:C82 C102:C103 C117:C118 C128 S81:S82 S102:S103 S117:S118 S128 S28 C28 E61:E62 E81:E82 E102:E103 E117:E118 E128 E28 G61:G62 G81:G82 G102:G103 G117:G118 G128 G28 I61:I62 I81:I82 I102:I103 I117:I118 I128 I28 K61:K62 K81:K82 K102:K103 K117:K118 K128 K28 M81:M82 M102:M103 M117:M118 M128 M28 M44:M45 O81:O82 O102:O103 O117:O118 O128 O28 O44:O45 Q81:Q82 Q102:Q103 Q117:Q118 Q128 Q28 Q44:Q45 S44:S45 E44:E45 G44:G45 I44:I45 K44:K45 M61:M62 O61:O62 Q61:Q62 S61:S62 U61:U62 U81:U82 U102:U103 U117:U118 U128 U28 U44:U45 W61:W62 W81:W82 W102:W103 W117:W118 W128 W28 W44:W45 Y61:Y62 Y81:Y82 Y102:Y103 Y117:Y118 Y128 Y28 Y44:Y45 AA61:AA62 AA81:AA82 AA102:AA103 AA117:AA118 AA128 AA28 AA44:AA45 AC44:AC45 AC61:AC62 AC81:AC82 AC102:AC103 AC117:AC118 AC128 AC28 AE61:AE62 AE81:AE82 AE102:AE103 AE117:AE118 AE128 AE28 AG61:AG62 AG81:AG82 AG102:AG103 AG117:AG118 AG128 AG28 AI61:AI62 AI81:AI82 AI102:AI103 AI117:AI118 AI128 AI28 AK61:AK62 AK81:AK82 AK102:AK103 AK117:AK118 AK128 AK28 AM81:AM82 AM102:AM103 AM117:AM118 AM128 AM28 AM44:AM45 AE44:AE45 AG44:AG45 AI44:AI45 AK44:AK45 AM61:AM62</xm:sqref>
+          <xm:sqref>C44:C45 C61:C62 C81:C82 C102:C103 C117:C118 C128 S81:S82 S102:S103 S117:S118 S128 S28 C28 E61:E62 E81:E82 E102:E103 E117:E118 E128 E28 G61:G62 G81:G82 G102:G103 G117:G118 G128 G28 I61:I62 I81:I82 I102:I103 I117:I118 I128 I28 K61:K62 K81:K82 K102:K103 K117:K118 K128 K28 M81:M82 M102:M103 M117:M118 M128 M28 M44:M45 O81:O82 O102:O103 O117:O118 O128 O28 O44:O45 Q81:Q82 Q102:Q103 Q117:Q118 Q128 Q28 Q44:Q45 S44:S45 E44:E45 G44:G45 I44:I45 K44:K45 M61:M62 O61:O62 Q61:Q62 S61:S62 U61:U62 U81:U82 U102:U103 U117:U118 U128 U28 U44:U45 W61:W62 W81:W82 W102:W103 W117:W118 W128 W28 W44:W45 Y61:Y62 Y81:Y82 Y102:Y103 Y117:Y118 Y128 Y28 Y44:Y45 AA61:AA62 AA81:AA82 AA102:AA103 AA117:AA118 AA128 AA28 AA44:AA45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96F1185A-9CBE-A248-B159-98BD86CFFF06}">
           <x14:formula1>
             <xm:f>Options!$J$8:$J$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C69 C89 C110 C120 C132 S69 S89 S110 S120 S132 E69 E89 E110 E120 E132 G69 G89 G110 G120 G132 I69 I89 I110 I120 I132 K69 K89 K110 K120 K132 M69 M89 M110 M120 M132 O69 O89 O110 O120 O132 Q69 Q89 Q110 Q120 Q132 U69 U89 U110 U120 U132 W69 W89 W110 W120 W132 Y69 Y89 Y110 Y120 Y132 AA69 AA89 AA110 AA120 AA132 AC69 AC89 AC110 AC120 AC132 AE69 AE89 AE110 AE120 AE132 AG69 AG89 AG110 AG120 AG132 AI69 AI89 AI110 AI120 AI132 AK69 AK89 AK110 AK120 AK132 AM69 AM89 AM110 AM120 AM132</xm:sqref>
+          <xm:sqref>C69 C89 C110 C120 C132 S69 S89 S110 S120 S132 E69 E89 E110 E120 E132 G69 G89 G110 G120 G132 I69 I89 I110 I120 I132 K69 K89 K110 K120 K132 M69 M89 M110 M120 M132 O69 O89 O110 O120 O132 Q69 Q89 Q110 Q120 Q132 U69 U89 U110 U120 U132 W69 W89 W110 W120 W132 Y69 Y89 Y110 Y120 Y132 AA69 AA89 AA110 AA120 AA132</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78FD689C-F053-F043-A03C-3E8E3F99305E}">
           <x14:formula1>
             <xm:f>Options!$K$8:$K$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C90 C111 C121 S90 S111 S121 E90 E111 E121 G90 G111 G121 I90 I111 I121 K90 K111 K121 M90 M111 M121 O90 O111 O121 Q90 Q111 Q121 U90 U111 U121 W90 W111 W121 Y90 Y111 Y121 AA90 AA111 AA121 AC90 AC111 AC121 AE90 AE111 AE121 AG90 AG111 AG121 AI90 AI111 AI121 AK90 AK111 AK121 AM90 AM111 AM121</xm:sqref>
+          <xm:sqref>C90 C111 C121 S90 S111 S121 E90 E111 E121 G90 G111 G121 I90 I111 I121 K90 K111 K121 M90 M111 M121 O90 O111 O121 Q90 Q111 Q121 U90 U111 U121 W90 W111 W121 Y90 Y111 Y121 AA90 AA111 AA121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B51C4797-3444-404A-9E4C-DBFFC9217932}">
           <x14:formula1>
             <xm:f>Options!$E$1:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B8 L8 R8 D8 F8 H8 J8 N8 P8 T8 V8 X8 Z8 AB8 AL8 AD8 AF8 AH8 AJ8</xm:sqref>
+          <xm:sqref>B8 L8 R8 D8 F8 H8 J8 N8 P8 T8 V8 X8 Z8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DA35318-7EA2-274B-865C-ADF124950B07}">
           <x14:formula1>
             <xm:f>Options!B3:B4</xm:f>
           </x14:formula1>
-          <xm:sqref>C8 AE8 AG8 AI8 AK8 AM8 AC8 S8 E8 G8 I8 K8 M8 O8 Q8 U8 W8 Y8 AA8</xm:sqref>
+          <xm:sqref>C8 AA8 Y8 W8 U8 Q8 O8 M8 K8 I8 G8 E8 S8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12596,18 +9752,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="O12" sqref="O12:T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -12615,7 +9771,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12623,7 +9779,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
@@ -12631,7 +9787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>72</v>
       </c>
@@ -12639,7 +9795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -12647,12 +9803,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -12660,7 +9816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -12668,7 +9824,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -12676,7 +9832,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -12684,12 +9840,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -12745,32 +9901,8 @@
         <f>Districts!Z1</f>
         <v>WRR</v>
       </c>
-      <c r="O12">
-        <f>Districts!AB1</f>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f>Districts!AD1</f>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f>Districts!AF1</f>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f>Districts!AH1</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>Districts!AJ1</f>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f>Districts!AL1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -12778,7 +9910,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -12833,9 +9965,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -12846,7 +9978,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -12857,7 +9989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -12865,7 +9997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -12873,12 +10005,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -12910,7 +10042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>93</v>
       </c>
@@ -12942,7 +10074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>82</v>
       </c>
@@ -12974,7 +10106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>83</v>
       </c>
@@ -13006,22 +10138,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>106</v>
       </c>
@@ -13029,7 +10161,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>108</v>
       </c>
@@ -13037,7 +10169,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>109</v>
       </c>
@@ -13045,7 +10177,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -13053,7 +10185,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>107</v>
       </c>
@@ -13061,7 +10193,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>105</v>
       </c>
